--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Edn1-Ednrb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Edn1-Ednrb.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>7.803861666666667</v>
+        <v>5.050945333333334</v>
       </c>
       <c r="H2">
-        <v>23.411585</v>
+        <v>15.152836</v>
       </c>
       <c r="I2">
-        <v>0.7185921299200279</v>
+        <v>0.6229573853973969</v>
       </c>
       <c r="J2">
-        <v>0.7185921299200277</v>
+        <v>0.6229573853973969</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.46535033333333</v>
+        <v>28.25464766666667</v>
       </c>
       <c r="N2">
-        <v>79.396051</v>
+        <v>84.763943</v>
       </c>
       <c r="O2">
-        <v>0.3009886585509795</v>
+        <v>0.3168758800036845</v>
       </c>
       <c r="P2">
-        <v>0.3009886585509795</v>
+        <v>0.3168758800036845</v>
       </c>
       <c r="Q2">
-        <v>206.5319329612039</v>
+        <v>142.7126807769276</v>
       </c>
       <c r="R2">
-        <v>1858.787396650835</v>
+        <v>1284.414126992348</v>
       </c>
       <c r="S2">
-        <v>0.2162880812299204</v>
+        <v>0.1974001697025946</v>
       </c>
       <c r="T2">
-        <v>0.2162880812299203</v>
+        <v>0.1974001697025946</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>7.803861666666667</v>
+        <v>5.050945333333334</v>
       </c>
       <c r="H3">
-        <v>23.411585</v>
+        <v>15.152836</v>
       </c>
       <c r="I3">
-        <v>0.7185921299200279</v>
+        <v>0.6229573853973969</v>
       </c>
       <c r="J3">
-        <v>0.7185921299200277</v>
+        <v>0.6229573853973969</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.140155</v>
       </c>
       <c r="O3">
-        <v>0.000531324479087915</v>
+        <v>0.0005239461189519747</v>
       </c>
       <c r="P3">
-        <v>0.000531324479087915</v>
+        <v>0.0005239461189519747</v>
       </c>
       <c r="Q3">
-        <v>0.3645834106305556</v>
+        <v>0.2359717477311111</v>
       </c>
       <c r="R3">
-        <v>3.281250695675</v>
+        <v>2.12374572958</v>
       </c>
       <c r="S3">
-        <v>0.0003818055891064341</v>
+        <v>0.0003263961043514357</v>
       </c>
       <c r="T3">
-        <v>0.0003818055891064341</v>
+        <v>0.0003263961043514357</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>7.803861666666667</v>
+        <v>5.050945333333334</v>
       </c>
       <c r="H4">
-        <v>23.411585</v>
+        <v>15.152836</v>
       </c>
       <c r="I4">
-        <v>0.7185921299200279</v>
+        <v>0.6229573853973969</v>
       </c>
       <c r="J4">
-        <v>0.7185921299200277</v>
+        <v>0.6229573853973969</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.41599633333334</v>
+        <v>60.86492733333333</v>
       </c>
       <c r="N4">
-        <v>184.247989</v>
+        <v>182.594782</v>
       </c>
       <c r="O4">
-        <v>0.6984800169699326</v>
+        <v>0.6826001738773636</v>
       </c>
       <c r="P4">
-        <v>0.6984800169699326</v>
+        <v>0.6826001738773636</v>
       </c>
       <c r="Q4">
-        <v>479.2819395058406</v>
+        <v>307.4254206779725</v>
       </c>
       <c r="R4">
-        <v>4313.537455552566</v>
+        <v>2766.828786101752</v>
       </c>
       <c r="S4">
-        <v>0.5019222431010011</v>
+        <v>0.4252308195904509</v>
       </c>
       <c r="T4">
-        <v>0.501922243101001</v>
+        <v>0.4252308195904509</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>8.088327</v>
       </c>
       <c r="I5">
-        <v>0.2482620517329206</v>
+        <v>0.3325240925302148</v>
       </c>
       <c r="J5">
-        <v>0.2482620517329206</v>
+        <v>0.3325240925302149</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.46535033333333</v>
+        <v>28.25464766666667</v>
       </c>
       <c r="N5">
-        <v>79.396051</v>
+        <v>84.763943</v>
       </c>
       <c r="O5">
-        <v>0.3009886585509795</v>
+        <v>0.3168758800036845</v>
       </c>
       <c r="P5">
-        <v>0.3009886585509795</v>
+        <v>0.3168758800036845</v>
       </c>
       <c r="Q5">
-        <v>71.35346922185299</v>
+        <v>76.177609865929</v>
       </c>
       <c r="R5">
-        <v>642.181222996677</v>
+        <v>685.598488793361</v>
       </c>
       <c r="S5">
-        <v>0.07472406192020566</v>
+        <v>0.1053688644429384</v>
       </c>
       <c r="T5">
-        <v>0.07472406192020564</v>
+        <v>0.1053688644429384</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>8.088327</v>
       </c>
       <c r="I6">
-        <v>0.2482620517329206</v>
+        <v>0.3325240925302148</v>
       </c>
       <c r="J6">
-        <v>0.2482620517329206</v>
+        <v>0.3325240925302149</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.140155</v>
       </c>
       <c r="O6">
-        <v>0.000531324479087915</v>
+        <v>0.0005239461189519747</v>
       </c>
       <c r="P6">
-        <v>0.000531324479087915</v>
+        <v>0.0005239461189519747</v>
       </c>
       <c r="Q6">
         <v>0.125957718965</v>
@@ -818,10 +818,10 @@
         <v>1.133619470685</v>
       </c>
       <c r="S6">
-        <v>0.0001319077053142911</v>
+        <v>0.0001742247077392334</v>
       </c>
       <c r="T6">
-        <v>0.000131907705314291</v>
+        <v>0.0001742247077392334</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>8.088327</v>
       </c>
       <c r="I7">
-        <v>0.2482620517329206</v>
+        <v>0.3325240925302148</v>
       </c>
       <c r="J7">
-        <v>0.2482620517329206</v>
+        <v>0.3325240925302149</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>61.41599633333334</v>
+        <v>60.86492733333333</v>
       </c>
       <c r="N7">
-        <v>184.247989</v>
+        <v>182.594782</v>
       </c>
       <c r="O7">
-        <v>0.6984800169699326</v>
+        <v>0.6826001738773636</v>
       </c>
       <c r="P7">
-        <v>0.6984800169699326</v>
+        <v>0.6826001738773636</v>
       </c>
       <c r="Q7">
-        <v>165.584220458267</v>
+        <v>164.098478367746</v>
       </c>
       <c r="R7">
-        <v>1490.257984124403</v>
+        <v>1476.886305309714</v>
       </c>
       <c r="S7">
-        <v>0.1734060821074007</v>
+        <v>0.2269810033795372</v>
       </c>
       <c r="T7">
-        <v>0.1734060821074007</v>
+        <v>0.2269810033795372</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3599613333333334</v>
+        <v>0.3609566666666666</v>
       </c>
       <c r="H8">
-        <v>1.079884</v>
+        <v>1.08287</v>
       </c>
       <c r="I8">
-        <v>0.03314581834705166</v>
+        <v>0.04451852207238823</v>
       </c>
       <c r="J8">
-        <v>0.03314581834705165</v>
+        <v>0.04451852207238824</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.46535033333333</v>
+        <v>28.25464766666667</v>
       </c>
       <c r="N8">
-        <v>79.396051</v>
+        <v>84.763943</v>
       </c>
       <c r="O8">
-        <v>0.3009886585509795</v>
+        <v>0.3168758800036845</v>
       </c>
       <c r="P8">
-        <v>0.3009886585509795</v>
+        <v>0.3168758800036845</v>
       </c>
       <c r="Q8">
-        <v>9.526502793120445</v>
+        <v>10.19870343960111</v>
       </c>
       <c r="R8">
-        <v>85.738525138084</v>
+        <v>91.78833095640999</v>
       </c>
       <c r="S8">
-        <v>0.009976515400853524</v>
+        <v>0.01410684585815147</v>
       </c>
       <c r="T8">
-        <v>0.009976515400853522</v>
+        <v>0.01410684585815148</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3599613333333334</v>
+        <v>0.3609566666666666</v>
       </c>
       <c r="H9">
-        <v>1.079884</v>
+        <v>1.08287</v>
       </c>
       <c r="I9">
-        <v>0.03314581834705166</v>
+        <v>0.04451852207238823</v>
       </c>
       <c r="J9">
-        <v>0.03314581834705165</v>
+        <v>0.04451852207238824</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,22 +992,22 @@
         <v>0.140155</v>
       </c>
       <c r="O9">
-        <v>0.000531324479087915</v>
+        <v>0.0005239461189519747</v>
       </c>
       <c r="P9">
-        <v>0.000531324479087915</v>
+        <v>0.0005239461189519747</v>
       </c>
       <c r="Q9">
-        <v>0.01681679355777778</v>
+        <v>0.01686329387222222</v>
       </c>
       <c r="R9">
-        <v>0.15135114202</v>
+        <v>0.15176964485</v>
       </c>
       <c r="S9">
-        <v>1.761118466718988E-05</v>
+        <v>2.332530686130564E-05</v>
       </c>
       <c r="T9">
-        <v>1.761118466718987E-05</v>
+        <v>2.332530686130564E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3599613333333334</v>
+        <v>0.3609566666666666</v>
       </c>
       <c r="H10">
-        <v>1.079884</v>
+        <v>1.08287</v>
       </c>
       <c r="I10">
-        <v>0.03314581834705166</v>
+        <v>0.04451852207238823</v>
       </c>
       <c r="J10">
-        <v>0.03314581834705165</v>
+        <v>0.04451852207238824</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>61.41599633333334</v>
+        <v>60.86492733333333</v>
       </c>
       <c r="N10">
-        <v>184.247989</v>
+        <v>182.594782</v>
       </c>
       <c r="O10">
-        <v>0.6984800169699326</v>
+        <v>0.6826001738773636</v>
       </c>
       <c r="P10">
-        <v>0.6984800169699326</v>
+        <v>0.6826001738773636</v>
       </c>
       <c r="Q10">
-        <v>22.10738392814178</v>
+        <v>21.96960128714889</v>
       </c>
       <c r="R10">
-        <v>198.966455353276</v>
+        <v>197.72641158434</v>
       </c>
       <c r="S10">
-        <v>0.02315169176153094</v>
+        <v>0.03038835090737546</v>
       </c>
       <c r="T10">
-        <v>0.02315169176153094</v>
+        <v>0.03038835090737546</v>
       </c>
     </row>
   </sheetData>
